--- a/medicine/Enfance/Collection_Spirale/Collection_Spirale.xlsx
+++ b/medicine/Enfance/Collection_Spirale/Collection_Spirale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spirale est une collection française de romans pour la jeunesse créée par les éditions G. P. et éditée de 1959 à 1980. Elle compte 300 titres.
 </t>
@@ -511,7 +523,9 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créées en 1945, les éditions G. P. (Générale de Publicité), spécialisées dans la littérature pour la jeunesse, seront rebaptisées plus tard G. P. Rouge et Or. Elles sont rachetées en 1961 par le groupe Presses de la Cité. 
 Les éditions G. P. sont surtout connues pour les collections « Bibliothèque Rouge et Or » (créée en 1947) et « Bibliothèque Rouge et Bleue ». Après avoir donné naissance en 1957 à la collection Rouge et Or Dauphine, destinée à un public plus jeune (6 à 10 ans), elles créent en 1959 la collection « Spirale » qui vise les enfants de dix à quinze ans.
@@ -545,7 +559,9 @@
           <t>Aspect des livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Reconnaissables à leur dos rouge, d'abord arrondi puis plat, les volumes de la collection Spirale sont de solides livres de format 17,5 cm sur 12,5 cm, reliés, cartonnés et pelliculés. Chaque volume comporte environ 190 pages avec des illustrations en couleur sur papier haut de gamme. 
 Le logo "Spirale" figure au bas de la couverture et changera d'aspect selon la décade :
@@ -578,29 +594,187 @@
           <t>Liste des titres édités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : liste exhaustive. La 1re date est celle de la 1re édition.
-Les séries
-série Biggles de Captain W.E. Johns
-(Illustrations de Michel Jouin)	 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>série Biggles de Captain W.E. Johns</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Illustrations de Michel Jouin)	 
 1967 : Biggles et le Masque noir
 1967 : Biggles en Bohême
 1968 : Biggles dans la jungle
 1969 : Biggles et la Cargaison perdue
 1970 : Biggles dans les sables maudits
-série Les Imbattables de Lucy Vincent[1]
-(Illustrations de Jean-Gérald Bertrand)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>série Les Imbattables de Lucy Vincent[1]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Illustrations de Jean-Gérald Bertrand)
 1970 : Les Imbattables et le Lac des ombres
 1971 : Imbattables, micros et caméras
 1969 : Le Secret de Maître Bastien
-série Janou de Eve Dessarre
-(Illustrations de Jean-Gérald Bertrand) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>série Janou de Eve Dessarre</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Illustrations de Jean-Gérald Bertrand) 
 1967 : Janou dans la grotte d'argent
 1967 : Janou et ses amis
 1968 : Janou reporter
 1968 : Janou cherche Roberta
-série Jacques Rogy, de Pierre Lamblin
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>série Jacques Rogy, de Pierre Lamblin</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1960 : Trois Garçons mènent l'enquête (Jacques Rogy entre en scène) (ill. Françoise Bertier)
 1961 : Jacques Rogy court deux lièvres à la fois (ill. Vanni Tealdi)
 1961 : Jacques Rogy chasse le fantôme (ill. Vanni Tealdi)
@@ -628,7 +802,47 @@
 1974 : Jacques Rogy se fâche (ill. Jean-Gérald Bertrand)
 1975 : Jacques Rogy force le secret des treize (ill. Jacques Fromont)
 1976 : Jacques Rogy réussi un fameux coup de filet (ill. Vanni Tealdi)
-série Jules Verne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>série Jules Verne</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1978 : Michel Strogoff (ill. Annie-Claude Martin)
 1978 : De la Terre à la Lune (ill. Jean Reschofsky)
 1978 : Voyage au centre de la Terre (ill. Annie-Claude Martin)
@@ -636,15 +850,135 @@
 1978 : Autour de la Lune (ill. Annie-Claude Martin)
 1979 : Cinq semaines en ballon (ill. Yves Beaujard)
 1979 : L'Étoile du sud (ill. Annie-Claude Martin)
-série Les Jum's de Pierre Lamblin et Lucienne Pujol
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>série Les Jum's de Pierre Lamblin et Lucienne Pujol</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1973 : Les Jum's et la Belle Dame (ill. Jean-Gérald Bertrand)
 1974 : Les Jum's et le coffre aux treize serrures (ill. Jean-Gérald Bertrand)
 1974 : Les Jum's et le Cousin de Patagonie (ill. Jacques Fromont)
 1975 : Les Jum's rencontrent Zorro (ill. Jacques Fromont)
-série Le Petit Gitan de Geneviève Laporte
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>série Le Petit Gitan de Geneviève Laporte</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1974 : Le Petit Gitan, son âne et la grande ville (ill. Jean Retailleau)
 1977 : Le Petit Gitan à la recherche du plan perdu (ill. Jean Retailleau)
-série Shirley, d'Edward Home-Gall
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>série Shirley, d'Edward Home-Gall</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1962 : Shirley, hôtesse de l'air (ill. Vanni Tealdi)
 1962 : Shirley et l'Affaire du diamant (ill. Vanni Tealdi)
 1963 : Shirley et le Rébus chinois (ill. Vanni Tealdi)
@@ -660,11 +994,91 @@
 1971 : Shirley et la Reine du fandango (ill. Daniel Dupuy)
 1971 : Shirley et les Écumeurs de la prairie (ill. Daniel Dupuy)
 1973 : Shirley et les Naufragés du Pacifique (ill. Daniel Dupuy)
-série Sur le sentier de Michel R. Hofmann
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>série Sur le sentier de Michel R. Hofmann</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1962 : Sur le sentier de la musique (ill. Raoul Auger)
 1963 : Sur le sentier de la danse (ill. Raoul Auger)
 1963 : Sur le sentier du cinéma (ill. Raoul Auger)
-série Tina de A. B. Carroll [2]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>série Tina de A. B. Carroll [2]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1961 : Bonjour, Tina ! (ill. Françoise Bertier)
 1962 : Tina, mannequin (ill. Françoise Bertier)
 1962 : Tina joue gagnant (ill. Guillaume Bertier de Sauvigny)
@@ -676,14 +1090,133 @@
 1967 : Tina, femme d'affaires (ill. Monique Gorde)
 1968 : Tina parmi les stars (ill. Monique Gorde)
 1969 : Signorina Tina (ill. Monique Gorde)
-série Titabou de René Garrus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>série Titabou de René Garrus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1962 : Titabou joue aux pirates (ill. Guy Maynard)
 1963 : Titabou au mas des flamants roses (ill. Jean-Gérald Bertrand)
-série Le Toucan de Max Artis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>série Le Toucan de Max Artis</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1977 : Le Toucan vole à Sumatra (ill. Vanni Tealdi)
 1976 : Le Toucan et le Trésor des Samouraï (ill. Vanni Tealdi)
-série Yann de Knud Meister[3] et Carlo Andersen
-(Illustrations de Daniel Billon)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Les séries</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>série Yann de Knud Meister[3] et Carlo Andersen</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Illustrations de Daniel Billon)
 1973 : Yann détective
 1973 : Yann enquête au cirque
 1974 : Yann et le Voleur de voitures
@@ -696,7 +1229,43 @@
 1976 : Yann et le Mystère des perles
 1977 : Yann et le Vol des bijoux
 1978 : Yann pris au piège
-Romans hors-séries
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collection_Spirale</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des titres édités</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Romans hors-séries</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1959 : La Fille du capitaine d'Alexandre Pouchkine (ill. Paul Szasz)
 1959 : Femmes de la mer d'Anne de Tourville (ill. René Péron)
 1959 : L'Homme à l'oreille cassée d'Edmond About (ill. Jacques Pecnard)
@@ -819,7 +1388,7 @@
 1971 : Ambor le loup de Joseph-Henry Rosny Ainé (ill. René Péron)
 1971 : Tempêtes sur les huttes de Jacqueline Verly (ill. Jacqueline Verly)
 1971 : La Guerre du castor de Pierre Pelot (ill. Jacques Pecnard)
-1971 : Le Secret des pierres-qui-fondent[4] de Christiane Dollard-Martel (ill. René Péron)
+1971 : Le Secret des pierres-qui-fondent de Christiane Dollard-Martel (ill. René Péron)
 1972 : Contes du samovar de (collectif) (ill. Marie Chartrain)
 1972 : La Demoiselle de Blachaux d'Anne Pierjean (ill. Michel Gourlier)
 1972 : La Prairie de Fenimore Cooper (ill. Daniel Dupuy)
@@ -851,7 +1420,7 @@
 1974 : La Croisière du Sans-Souci d'Ursula Moray-Williams (ill. Marie Chartrain)
 1974 : Des ennuis, Julien ? d'Anne Pierjean (ill. Jacques Pecnard)
 1975 : Les Captifs de Babylone de Jean Riverain (ill. Jacques Pecnard)
-1974 : Aventure[5] aux Caraïbes de Viola Bayley (ill. Michel Gourlier)
+1974 : Aventure aux Caraïbes de Viola Bayley (ill. Michel Gourlier)
 1975 : La Poussière de la piste, de Pierre Pelot (ill. Omer Anamur)
 1975 : Nicky, mon ami de Molly Burkett (ill. Michel Gourlier)
 1975 : L’Île lointaine de Luciana Martini (ill. Jean Retailleau)
